--- a/Workshop.xlsx
+++ b/Workshop.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff\Documents\PlatformIO\Projects\AnimARTrixWorkshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B5D913-9B32-49B2-843A-293622FEC312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0131A6-648E-4584-8E46-E7FDAD2BF71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{FB0ADF23-26E6-47B2-B077-3A5675212907}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="16395" activeTab="1" xr2:uid="{FB0ADF23-26E6-47B2-B077-3A5675212907}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
   <si>
     <t>.angle</t>
   </si>
@@ -189,6 +190,114 @@
   </si>
   <si>
     <t>index</t>
+  </si>
+  <si>
+    <t>Layer</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polar_theta[x][y] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cAngle  </t>
+  </si>
+  <si>
+    <t>move.noise_angle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[5] </t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>move.directional</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[6] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">animation.dist </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ </t>
+  </si>
+  <si>
+    <t>cTwist</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">animation.angle = </t>
+  </si>
+  <si>
+    <t>parenBegin</t>
+  </si>
+  <si>
+    <t>parenEnd</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>[8]</t>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t>result = 0</t>
+  </si>
+  <si>
+    <t>oldResult = result</t>
+  </si>
+  <si>
+    <t>for (e = 0; e &lt; numElements, e++) {</t>
+  </si>
+  <si>
+    <t>if (indexed), core[i][index[i]]</t>
+  </si>
+  <si>
+    <t>else core[i]</t>
+  </si>
+  <si>
+    <t>switch.operator</t>
+  </si>
+  <si>
+    <t>case AdjustmentOperator::ADD:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adjValue = </t>
+  </si>
+  <si>
+    <t>result += adjValue</t>
   </si>
 </sst>
 </file>
@@ -236,7 +345,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -324,11 +433,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -372,6 +496,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -711,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAB4482-1B82-4D82-B93F-D62713BE88CE}">
   <dimension ref="A6:U53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -723,16 +856,16 @@
     <col min="7" max="7" width="14.3984375" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.3984375" customWidth="1"/>
     <col min="9" max="9" width="31.53125" customWidth="1"/>
-    <col min="10" max="11" width="14.3984375" customWidth="1"/>
+    <col min="10" max="12" width="2.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
       <c r="O6" t="s">
         <v>10</v>
       </c>
@@ -837,10 +970,16 @@
         <v>10</v>
       </c>
       <c r="H21" s="6"/>
+      <c r="J21" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="22" spans="3:21" x14ac:dyDescent="0.45">
       <c r="F22" s="13"/>
       <c r="H22" s="8"/>
+      <c r="K22" t="s">
+        <v>39</v>
+      </c>
       <c r="U22" t="s">
         <v>27</v>
       </c>
@@ -849,6 +988,9 @@
       <c r="F23" s="14"/>
       <c r="G23" s="15"/>
       <c r="H23" s="16"/>
+      <c r="L23" t="s">
+        <v>52</v>
+      </c>
       <c r="U23" t="s">
         <v>28</v>
       </c>
@@ -1026,4 +1168,539 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126873FF-CD3D-4EDA-B719-FDC7354C43F7}">
+  <dimension ref="E7:P44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="7" max="7" width="10.46484375" customWidth="1"/>
+    <col min="8" max="8" width="9.06640625" style="21"/>
+    <col min="9" max="9" width="15.1328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.9296875" style="21" customWidth="1"/>
+    <col min="12" max="12" width="10.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="7:12" x14ac:dyDescent="0.45">
+      <c r="G7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="7:12" x14ac:dyDescent="0.45">
+      <c r="G11" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="7:12" x14ac:dyDescent="0.45">
+      <c r="G12" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+    </row>
+    <row r="13" spans="7:12" x14ac:dyDescent="0.45">
+      <c r="G13" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23">
+        <v>2</v>
+      </c>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+    </row>
+    <row r="14" spans="7:12" x14ac:dyDescent="0.45">
+      <c r="G14" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+    </row>
+    <row r="15" spans="7:12" x14ac:dyDescent="0.45">
+      <c r="G15" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="23"/>
+    </row>
+    <row r="16" spans="7:12" x14ac:dyDescent="0.45">
+      <c r="G16" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="23"/>
+    </row>
+    <row r="17" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="G17" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="L17" s="23"/>
+      <c r="N17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="G18" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+    </row>
+    <row r="19" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="G19" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23">
+        <v>10</v>
+      </c>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+    </row>
+    <row r="20" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="G20" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="I27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="I28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Workshop.xlsx
+++ b/Workshop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff\Documents\PlatformIO\Projects\AnimARTrixWorkshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0131A6-648E-4584-8E46-E7FDAD2BF71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E630E059-749C-4520-B72B-4F2DFC1F6DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="16395" activeTab="1" xr2:uid="{FB0ADF23-26E6-47B2-B077-3A5675212907}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="1" xr2:uid="{FB0ADF23-26E6-47B2-B077-3A5675212907}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="108">
   <si>
     <t>.angle</t>
   </si>
@@ -298,13 +298,76 @@
   </si>
   <si>
     <t>result += adjValue</t>
+  </si>
+  <si>
+    <t>move.linear</t>
+  </si>
+  <si>
+    <t>move.radial</t>
+  </si>
+  <si>
+    <t>[i]</t>
+  </si>
+  <si>
+    <t>cZoom</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>direct</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>float variable</t>
+  </si>
+  <si>
+    <t>float array</t>
+  </si>
+  <si>
+    <t>Float variables</t>
+  </si>
+  <si>
+    <t>pixelDistance</t>
+  </si>
+  <si>
+    <t>pixelAngle</t>
+  </si>
+  <si>
+    <t>Float arrays</t>
+  </si>
+  <si>
+    <t>switchType</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>switchOption</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +377,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -452,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -507,6 +578,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1172,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126873FF-CD3D-4EDA-B719-FDC7354C43F7}">
-  <dimension ref="E7:P44"/>
+  <dimension ref="E3:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1183,16 +1258,70 @@
     <col min="7" max="7" width="10.46484375" customWidth="1"/>
     <col min="8" max="8" width="9.06640625" style="21"/>
     <col min="9" max="9" width="15.1328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.9296875" style="21" customWidth="1"/>
-    <col min="12" max="12" width="10.796875" customWidth="1"/>
+    <col min="10" max="11" width="17.9296875" style="21" customWidth="1"/>
+    <col min="13" max="13" width="10.796875" customWidth="1"/>
+    <col min="17" max="17" width="12.9296875" style="21" customWidth="1"/>
+    <col min="18" max="19" width="18.06640625" customWidth="1"/>
+    <col min="20" max="20" width="14.86328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.9296875" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="7:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="7:21" x14ac:dyDescent="0.45">
+      <c r="Q3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="7:21" x14ac:dyDescent="0.45">
+      <c r="Q6" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="R6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S6" t="s">
+        <v>106</v>
+      </c>
+      <c r="T6" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="U6" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="7:21" x14ac:dyDescent="0.45">
       <c r="G7" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="7:12" x14ac:dyDescent="0.45">
+      <c r="Q7" s="21">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
+        <v>97</v>
+      </c>
+      <c r="T7" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="7:21" x14ac:dyDescent="0.45">
+      <c r="Q8" s="21">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="7:21" x14ac:dyDescent="0.45">
+      <c r="Q9" s="21">
+        <v>2</v>
+      </c>
+      <c r="R9" t="s">
+        <v>100</v>
+      </c>
+      <c r="U9" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="7:21" x14ac:dyDescent="0.45">
       <c r="G11" s="22" t="s">
         <v>70</v>
       </c>
@@ -1203,16 +1332,19 @@
         <v>68</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="K11" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="L11" s="22" t="s">
+      <c r="M11" s="22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="7:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="7:21" x14ac:dyDescent="0.45">
       <c r="G12" s="23" t="s">
         <v>71</v>
       </c>
@@ -1225,8 +1357,12 @@
       </c>
       <c r="K12" s="23"/>
       <c r="L12" s="23"/>
-    </row>
-    <row r="13" spans="7:12" x14ac:dyDescent="0.45">
+      <c r="M12" s="23"/>
+      <c r="U12" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="7:21" x14ac:dyDescent="0.45">
       <c r="G13" s="23" t="s">
         <v>72</v>
       </c>
@@ -1234,13 +1370,19 @@
         <v>55</v>
       </c>
       <c r="I13" s="23"/>
-      <c r="J13" s="23">
+      <c r="J13" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="K13" s="23">
         <v>2</v>
       </c>
-      <c r="K13" s="23"/>
       <c r="L13" s="23"/>
-    </row>
-    <row r="14" spans="7:12" x14ac:dyDescent="0.45">
+      <c r="M13" s="23"/>
+      <c r="U13" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="7:21" x14ac:dyDescent="0.45">
       <c r="G14" s="23" t="s">
         <v>22</v>
       </c>
@@ -1253,8 +1395,12 @@
       </c>
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
-    </row>
-    <row r="15" spans="7:12" x14ac:dyDescent="0.45">
+      <c r="M14" s="23"/>
+      <c r="U14" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="7:21" x14ac:dyDescent="0.45">
       <c r="G15" s="23" t="s">
         <v>14</v>
       </c>
@@ -1265,12 +1411,13 @@
       <c r="J15" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="23" t="s">
+      <c r="K15" s="23"/>
+      <c r="L15" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="L15" s="23"/>
-    </row>
-    <row r="16" spans="7:12" x14ac:dyDescent="0.45">
+      <c r="M15" s="23"/>
+    </row>
+    <row r="16" spans="7:21" x14ac:dyDescent="0.45">
       <c r="G16" s="23" t="s">
         <v>73</v>
       </c>
@@ -1283,12 +1430,13 @@
       <c r="J16" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="K16" s="23" t="s">
+      <c r="K16" s="23"/>
+      <c r="L16" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="23"/>
-    </row>
-    <row r="17" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="M16" s="23"/>
+    </row>
+    <row r="17" spans="5:20" x14ac:dyDescent="0.45">
       <c r="G17" s="23" t="s">
         <v>74</v>
       </c>
@@ -1299,15 +1447,16 @@
       <c r="J17" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="23" t="s">
+      <c r="K17" s="23"/>
+      <c r="L17" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="L17" s="23"/>
-      <c r="N17" t="s">
+      <c r="M17" s="23"/>
+      <c r="O17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="5:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:20" x14ac:dyDescent="0.45">
       <c r="G18" s="23" t="s">
         <v>75</v>
       </c>
@@ -1320,8 +1469,9 @@
       </c>
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
-    </row>
-    <row r="19" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="M18" s="23"/>
+    </row>
+    <row r="19" spans="5:20" x14ac:dyDescent="0.45">
       <c r="G19" s="23" t="s">
         <v>77</v>
       </c>
@@ -1329,13 +1479,16 @@
         <v>64</v>
       </c>
       <c r="I19" s="23"/>
-      <c r="J19" s="23">
+      <c r="J19" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="K19" s="23">
         <v>10</v>
       </c>
-      <c r="K19" s="23"/>
       <c r="L19" s="23"/>
-    </row>
-    <row r="20" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="M19" s="23"/>
+    </row>
+    <row r="20" spans="5:20" x14ac:dyDescent="0.45">
       <c r="G20" s="23" t="s">
         <v>76</v>
       </c>
@@ -1347,11 +1500,12 @@
         <v>65</v>
       </c>
       <c r="K20" s="23"/>
-      <c r="L20" s="23" t="s">
+      <c r="L20" s="23"/>
+      <c r="M20" s="23" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="5:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:20" x14ac:dyDescent="0.45">
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1365,7 +1519,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="5:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="5:20" x14ac:dyDescent="0.45">
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
@@ -1380,8 +1534,17 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="Q22" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="R22" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="T22" s="26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="5:20" x14ac:dyDescent="0.45">
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
@@ -1396,8 +1559,20 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="Q23" s="21">
+        <v>10</v>
+      </c>
+      <c r="R23" t="s">
+        <v>102</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="5:20" x14ac:dyDescent="0.45">
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1410,8 +1585,20 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="Q24" s="21">
+        <v>11</v>
+      </c>
+      <c r="R24" t="s">
+        <v>103</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="5:20" x14ac:dyDescent="0.45">
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1426,8 +1613,20 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="Q25" s="21">
+        <v>12</v>
+      </c>
+      <c r="R25" t="s">
+        <v>90</v>
+      </c>
+      <c r="S25">
+        <v>2</v>
+      </c>
+      <c r="T25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="5:20" x14ac:dyDescent="0.45">
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1442,8 +1641,20 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="Q26" s="21">
+        <v>13</v>
+      </c>
+      <c r="R26" t="s">
+        <v>65</v>
+      </c>
+      <c r="S26">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="5:20" x14ac:dyDescent="0.45">
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1458,7 +1669,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="5:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="5:20" x14ac:dyDescent="0.45">
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -1473,7 +1684,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="5:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="5:20" x14ac:dyDescent="0.45">
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1489,7 +1700,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="5:16" x14ac:dyDescent="0.45">
+    <row r="30" spans="5:20" x14ac:dyDescent="0.45">
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1505,7 +1716,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="5:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="5:20" x14ac:dyDescent="0.45">
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1520,7 +1731,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="5:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="5:20" x14ac:dyDescent="0.45">
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>

--- a/Workshop.xlsx
+++ b/Workshop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff\Documents\PlatformIO\Projects\AnimARTrixWorkshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E630E059-749C-4520-B72B-4F2DFC1F6DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F54D0E-653D-42D1-A017-1A9BDA479787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="1" xr2:uid="{FB0ADF23-26E6-47B2-B077-3A5675212907}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="16395" activeTab="1" xr2:uid="{FB0ADF23-26E6-47B2-B077-3A5675212907}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -576,12 +576,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -935,12 +935,12 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
       <c r="O6" t="s">
         <v>10</v>
       </c>
@@ -1250,7 +1250,7 @@
   <dimension ref="E3:U44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1537,10 +1537,10 @@
       <c r="Q22" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="R22" s="25" t="s">
+      <c r="R22" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="T22" s="26" t="s">
+      <c r="T22" s="25" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R23" t="s">
         <v>102</v>
@@ -1586,7 +1586,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="21">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R24" t="s">
         <v>103</v>
@@ -1614,7 +1614,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="21">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="R25" t="s">
         <v>90</v>
@@ -1642,7 +1642,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="21">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="R26" t="s">
         <v>65</v>
